--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_1000_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_1000_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.0003066565871828672</v>
       </c>
       <c r="F2" t="n">
-        <v>286.0877691859399</v>
+        <v>301.5198272274479</v>
       </c>
       <c r="G2" t="n">
-        <v>13.83924900030484</v>
+        <v>20.9257198412324</v>
       </c>
       <c r="H2" t="n">
-        <v>563.4633850077797</v>
+        <v>576.1834978760137</v>
       </c>
       <c r="I2" t="n">
-        <v>0.24683666856553</v>
+        <v>0.2408741705832104</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000538358993016303</v>
+        <v>0.001367532199953357</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6092997587148938</v>
+        <v>0.5638990011166842</v>
       </c>
       <c r="L2" t="n">
-        <v>0.176894997346638</v>
+        <v>0.1807565214380907</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006700179484500842</v>
+        <v>0.00810850077414255</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3685089869673474</v>
+        <v>0.3673345428161195</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0008614192506826264</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002622618867447234</v>
+        <v>0.002623255133635339</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001923567004295401</v>
+        <v>0.00190431164200106</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003369252547544819</v>
+        <v>0.003374091708301619</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002420118793339872</v>
+        <v>0.002421097065732277</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001769947068739642</v>
+        <v>0.001751948135999053</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00311090628703208</v>
+        <v>0.003115281650776451</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002749365538130383</v>
+        <v>0.002749737008511098</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002033029658711945</v>
+        <v>0.002013126224807544</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003512643868008954</v>
+        <v>0.003517830068651254</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.001168075837865493</v>
       </c>
       <c r="F4" t="n">
-        <v>286.0903918048073</v>
+        <v>301.5224504825815</v>
       </c>
       <c r="G4" t="n">
-        <v>13.84117256730914</v>
+        <v>20.9276241528744</v>
       </c>
       <c r="H4" t="n">
-        <v>563.4667542603272</v>
+        <v>576.1868719677219</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2492567873588699</v>
+        <v>0.2432952676489426</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002308306061755945</v>
+        <v>0.00311948033595241</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6124106650019259</v>
+        <v>0.5670142827674607</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1796443628847684</v>
+        <v>0.1835062584466018</v>
       </c>
       <c r="M4" t="n">
-        <v>0.008733209143212788</v>
+        <v>0.01012162699895009</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3720216308353563</v>
+        <v>0.3708523728847709</v>
       </c>
     </row>
   </sheetData>
